--- a/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DDS_Sprint4_ENG.xlsx
+++ b/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DDS_Sprint4_ENG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="6" r:id="rId1"/>
@@ -158,25 +158,7 @@
     <t>Admin123@gmail.com</t>
   </si>
   <si>
-    <t>Số lượng Testcase: 94</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed: 72 (chiếm 76%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase failed: 20 (chiếm 22%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase block: 2 (chiếm 2%)</t>
-  </si>
-  <si>
     <t>Số lượng testcase passed đạt mức 76% phù hợp với chỉ tiêu đặt ra ở mức NORMAL(&lt;80%).</t>
-  </si>
-  <si>
-    <t>Các testcase Block: chưa nghĩ ra hướng giải quyết, chuyển qua Sprint tiếp theo.</t>
-  </si>
-  <si>
-    <t>Các testcase Failed: đã có hướng giải quyết nhưng không đủ thời gian,chuyển qua Sprint tiếp theo để hoàn thiện sản phẩm.</t>
   </si>
   <si>
     <t>Document Reviewer Information</t>
@@ -336,6 +318,24 @@
   </si>
   <si>
     <t>TC.05.1</t>
+  </si>
+  <si>
+    <t>Total Testcase: 5</t>
+  </si>
+  <si>
+    <t>Testcase passed: 5 (occupy 100%)</t>
+  </si>
+  <si>
+    <t>Testcase block: 0 (occupy 0%)</t>
+  </si>
+  <si>
+    <t>Testcase failed: 0 (occupy 0%)</t>
+  </si>
+  <si>
+    <t>Testcase passed approximate 100% accordance with the criteria set out in level GOOD (&gt;80%).</t>
+  </si>
+  <si>
+    <t>Testcase Failed: have solutions but not enough time, switch to Sprint next product improvements.</t>
   </si>
 </sst>
 </file>
@@ -814,6 +814,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,39 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1055,6 +1055,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1275,7 +1276,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1599,6 +1602,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2730,18 +2734,18 @@
   <sheetData>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2761,7 +2765,7 @@
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="49"/>
@@ -2771,18 +2775,18 @@
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2805,24 +2809,24 @@
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2833,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="46" t="s">
@@ -2848,7 +2852,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="46" t="s">
@@ -2863,7 +2867,7 @@
         <v>1.2</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="46" t="s">
@@ -2878,7 +2882,7 @@
         <v>1.3</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="46" t="s">
@@ -2893,7 +2897,7 @@
         <v>1.4</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="46" t="s">
@@ -2908,7 +2912,7 @@
         <v>1.5</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="46" t="s">
@@ -2983,7 +2987,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>'Testcase Specification -DDS'!C12</f>
@@ -2996,7 +3000,7 @@
     </row>
     <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>'Testcase Specification -DDS'!C19</f>
@@ -3018,7 +3022,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>'Testcase Specification -DDS'!C22</f>
@@ -3040,7 +3044,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>'Testcase Specification -DDS'!C25</f>
@@ -3062,7 +3066,7 @@
     </row>
     <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>'Testcase Specification -DDS'!C28</f>
@@ -3093,8 +3097,8 @@
   </sheetPr>
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -3111,13 +3115,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="20">
         <f>COUNTIF(I11:I30,"&gt;a0")</f>
         <v>5</v>
@@ -3125,11 +3129,11 @@
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="20">
         <f>SUM(D5:D6)</f>
         <v>5</v>
@@ -3137,55 +3141,55 @@
       <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="20">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="20">
         <f>COUNTIF(H11:H29,"Passed")</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="20">
         <f>COUNTIF(H27:H29,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="20">
         <f>COUNTIF(H27:H29,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="19">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -3222,7 +3226,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -3235,10 +3239,10 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3249,93 +3253,93 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="51">
+      <c r="B13" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="62">
         <v>166</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="51" t="s">
+      <c r="D13" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="51" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -3347,19 +3351,19 @@
     </row>
     <row r="20" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C20" s="10">
         <v>170</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>11</v>
@@ -3374,7 +3378,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3387,10 +3391,10 @@
     </row>
     <row r="22" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -3402,19 +3406,19 @@
     </row>
     <row r="23" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C23" s="10">
         <v>164</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>11</v>
@@ -3429,7 +3433,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -3442,10 +3446,10 @@
     </row>
     <row r="25" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -3457,19 +3461,19 @@
     </row>
     <row r="26" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C26" s="10">
         <v>170</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>11</v>
@@ -3484,7 +3488,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -3497,10 +3501,10 @@
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -3512,19 +3516,19 @@
     </row>
     <row r="29" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C29" s="10">
         <v>175</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>11</v>
@@ -3661,8 +3665,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,22 +3676,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="25" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="25" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="25" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="25" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3695,7 +3699,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3706,15 +3710,15 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="33" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="33" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DDS_Sprint4_ENG.xlsx
+++ b/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DDS_Sprint4_ENG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="6" r:id="rId1"/>
@@ -24,22 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
-  <si>
-    <t>Người dùng được tạo câu hỏi gửi đến bộ phận trả lời</t>
-  </si>
-  <si>
-    <t>Hiển thị thông tin chi tiết của câu hỏi được chọn</t>
-  </si>
-  <si>
-    <t>Dữ liệu nhập vào không có ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hiển thị danh sách câu hỏi từ danh sách đã đăng của bộ từ điển</t>
-  </si>
-  <si>
-    <t>Hiển thị mỗi trang 6 câu hỏi, hiển thị tối đa 5 trang</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>Note</t>
   </si>
@@ -96,15 +81,6 @@
   </si>
   <si>
     <t>Passed:</t>
-  </si>
-  <si>
-    <t>Còn lại:</t>
-  </si>
-  <si>
-    <t>Đã hoàn thành:</t>
-  </si>
-  <si>
-    <t>Tổng số Testcase:</t>
   </si>
   <si>
     <t>Monitoring</t>
@@ -336,6 +312,49 @@
   </si>
   <si>
     <t>Testcase Failed: have solutions but not enough time, switch to Sprint next product improvements.</t>
+  </si>
+  <si>
+    <t>Test Objective</t>
+  </si>
+  <si>
+    <t>Project: Admission system - DeadlineTeam - Mentor: Mr. Bui Minh Phung</t>
+  </si>
+  <si>
+    <t>Project Test lead: Nguyen Phan Xuan Huy</t>
+  </si>
+  <si>
+    <t>Nguyen Phan Xuan Huy</t>
+  </si>
+  <si>
+    <t>Ngo Quang Huy</t>
+  </si>
+  <si>
+    <t>Test Specification</t>
+  </si>
+  <si>
+    <t>Total Testcase:</t>
+  </si>
+  <si>
+    <t>Done:</t>
+  </si>
+  <si>
+    <t>Remain:</t>
+  </si>
+  <si>
+    <t>Displaying 6 questions per page, displaying a maximum of 5 pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Display questions from List-Current of dictionary</t>
+  </si>
+  <si>
+    <t>Input no special characters</t>
+  </si>
+  <si>
+    <t>Show details of the selected questions</t>
+  </si>
+  <si>
+    <t>Users create questions to answer department</t>
   </si>
 </sst>
 </file>
@@ -345,7 +364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +481,26 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -679,7 +718,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -740,9 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
@@ -801,6 +837,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -813,6 +855,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,6 +902,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1036,11 +1087,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1049,7 +1100,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
+              <a:rPr lang="en-US"/>
               <a:t>Report</a:t>
             </a:r>
           </a:p>
@@ -1069,11 +1120,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1097,132 +1148,45 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -1240,11 +1204,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1264,13 +1228,14 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1356,132 +1321,45 @@
                   <c:idx val="0"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dLbls>
@@ -1502,8 +1380,8 @@
                         <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
-                              <a:lumMod val="65000"/>
-                              <a:lumOff val="35000"/>
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
                             </a:schemeClr>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
@@ -1523,13 +1401,14 @@
                   <c:showLeaderLines val="1"/>
                   <c:leaderLines>
                     <c:spPr>
-                      <a:ln w="9525">
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="35000"/>
                             <a:lumOff val="65000"/>
                           </a:schemeClr>
                         </a:solidFill>
+                        <a:round/>
                       </a:ln>
                       <a:effectLst/>
                     </c:spPr>
@@ -1601,7 +1480,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1616,11 +1495,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1710,18 +1589,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1729,8 +1608,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1751,7 +1630,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1775,8 +1654,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1810,51 +1689,50 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr/>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1866,33 +1744,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1909,18 +1784,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1930,7 +1807,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1939,13 +1816,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1954,17 +1832,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1973,16 +1851,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1991,15 +1870,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2018,16 +1903,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2036,17 +1922,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2055,16 +1941,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2074,8 +1961,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2085,7 +1972,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2093,7 +1980,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2102,21 +1989,10 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2124,17 +2000,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2144,26 +2020,27 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2173,8 +2050,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2184,19 +2061,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2206,8 +2084,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2217,8 +2095,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2227,21 +2111,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>362570</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>36010</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1113953</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140785</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8175701" cy="937629"/>
+    <xdr:ext cx="184731" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800970" y="417010"/>
-          <a:ext cx="8175701" cy="937629"/>
+          <a:off x="10724678" y="626560"/>
+          <a:ext cx="184731" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,44 +2139,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Admission</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> System - Sprint 2</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
             <a:ln w="6600">
               <a:solidFill>
@@ -2718,220 +2564,220 @@
   <dimension ref="B3:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="35"/>
-    <col min="2" max="2" width="16.28515625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="9.140625" style="34"/>
+    <col min="2" max="2" width="16.28515625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" style="34" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C17" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="F17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="42">
+        <v>41754</v>
+      </c>
+      <c r="C18" s="43">
+        <v>1</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="42">
+        <v>41755</v>
+      </c>
+      <c r="C19" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43">
-        <v>41754</v>
-      </c>
-      <c r="C18" s="44">
-        <v>1</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43">
-        <v>41755</v>
-      </c>
-      <c r="C19" s="39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="46" t="s">
-        <v>9</v>
+      <c r="E19" s="37"/>
+      <c r="F19" s="47" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43">
+      <c r="B20" s="42">
         <v>41756</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="38">
         <v>1.2</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="46" t="s">
-        <v>9</v>
+      <c r="D20" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="47" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43">
+      <c r="B21" s="42">
         <v>41757</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="38">
         <v>1.3</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="46" t="s">
-        <v>9</v>
+      <c r="D21" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="47" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43">
+      <c r="B22" s="42">
         <v>41758</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="38">
         <v>1.4</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="46" t="s">
-        <v>9</v>
+      <c r="D22" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="47" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43">
+      <c r="B23" s="42">
         <v>41787</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="38">
         <v>1.5</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="46" t="s">
-        <v>12</v>
+      <c r="D23" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="47" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="42"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="46"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="46"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2947,10 +2793,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A4:D13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2962,127 +2808,152 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+    </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="str">
+      <c r="A5" s="51" t="str">
         <f>'Testcase Specification -DDS'!B11</f>
         <v>Displays a list of questions</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>'Testcase Specification -DDS'!C12</f>
         <v>Pagination for list question</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
+      <c r="C6" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>'Testcase Specification -DDS'!C19</f>
         <v>Displays a list of questions</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
+      <c r="C7" s="68" t="s">
+        <v>99</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="51" t="str">
         <f>'Testcase Specification -DDS'!B21</f>
         <v>Search Questions</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>'Testcase Specification -DDS'!C22</f>
         <v>implement searching</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="51" t="str">
         <f>'Testcase Specification -DDS'!B24</f>
         <v>View content question</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>'Testcase Specification -DDS'!C25</f>
         <v>Displays detailed information questions</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="str">
+      <c r="A12" s="51" t="str">
         <f>'Testcase Specification -DDS'!B27</f>
         <v>Create question</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>'Testcase Specification -DDS'!C28</f>
         <v>Create question</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3097,8 +2968,8 @@
   </sheetPr>
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -3115,118 +2986,159 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="59"/>
+      <c r="A2" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="62"/>
       <c r="D2" s="20">
         <f>COUNTIF(I11:I30,"&gt;a0")</f>
         <v>5</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="59"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="62"/>
       <c r="D3" s="20">
         <f>SUM(D5:D6)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="62"/>
       <c r="D4" s="20">
         <f>D2-D3</f>
         <v>0</v>
       </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="60"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="63"/>
       <c r="D5" s="20">
         <f>COUNTIF(H11:H29,"Passed")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="60"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="63"/>
       <c r="D6" s="20">
         <f>COUNTIF(H27:H29,"Failed")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="60"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="63"/>
       <c r="D7" s="20">
         <f>COUNTIF(H27:H29,"Block")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="61"/>
+      <c r="E7" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="64"/>
       <c r="D8" s="19">
         <f>1-(D4/D2)</f>
         <v>1</v>
       </c>
+      <c r="E8" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="10" spans="1:10" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -3239,10 +3151,10 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3253,93 +3165,93 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="62">
+      <c r="B13" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="65">
         <v>166</v>
       </c>
-      <c r="D13" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>12</v>
+      <c r="D13" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>7</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="51"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="51"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="51"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="51"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -3351,34 +3263,34 @@
     </row>
     <row r="20" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C20" s="10">
         <v>170</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3391,10 +3303,10 @@
     </row>
     <row r="22" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -3406,34 +3318,34 @@
     </row>
     <row r="23" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C23" s="10">
         <v>164</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -3446,10 +3358,10 @@
     </row>
     <row r="25" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -3461,34 +3373,34 @@
     </row>
     <row r="26" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C26" s="10">
         <v>170</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -3501,10 +3413,10 @@
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -3516,34 +3428,36 @@
     </row>
     <row r="29" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C29" s="10">
         <v>175</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J29" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J10"/>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="E3:J5"/>
     <mergeCell ref="I13:I18"/>
     <mergeCell ref="E13:E18"/>
     <mergeCell ref="F13:F18"/>
@@ -3559,7 +3473,6 @@
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="D13:D18"/>
     <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:H18"/>
   </mergeCells>
   <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Not Applicable">
@@ -3665,7 +3578,7 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -3675,50 +3588,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L3" s="25" t="s">
-        <v>91</v>
+      <c r="L3" s="24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L4" s="25" t="s">
-        <v>92</v>
+      <c r="L4" s="24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L5" s="25" t="s">
-        <v>94</v>
+      <c r="L5" s="24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L6" s="25" t="s">
-        <v>93</v>
+      <c r="L6" s="24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L7" s="25"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L8" s="31" t="s">
-        <v>44</v>
+      <c r="L8" s="30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L9" s="32"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L10" s="32"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L11" s="33" t="s">
-        <v>95</v>
+      <c r="L11" s="32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L12" s="32"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L13" s="33" t="s">
-        <v>96</v>
+      <c r="L13" s="32" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3738,174 +3651,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>1</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C11" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>3</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C13" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="C16" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="26" t="b">
+      <c r="C17" s="25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="26" t="b">
+      <c r="C18" s="25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="26" t="b">
+      <c r="C19" s="25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="C20" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>5</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>1</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>2</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>3</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>1</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
-        <v>2</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>3</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>4</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>5</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="27" t="b">
+      <c r="C21" s="26" t="b">
         <v>1</v>
       </c>
     </row>
